--- a/web/data_fitri.xlsx
+++ b/web/data_fitri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_apps\fitri_apps\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171F3AEE-FAA4-4443-BF9A-93FB3398AF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B95592-6D4D-4DF4-B04C-9E32D1544766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{D1F941F4-D748-4667-AB54-D6D52F4E6124}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{D1F941F4-D748-4667-AB54-D6D52F4E6124}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9B156F-C68F-4B84-919E-7B5FD96A1DF3}">
   <dimension ref="A1:K801"/>
   <sheetViews>
-    <sheetView topLeftCell="C58" workbookViewId="0">
-      <selection activeCell="J58" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:K801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +836,7 @@
         <v>89</v>
       </c>
       <c r="K3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -871,7 +871,7 @@
         <v>89</v>
       </c>
       <c r="K4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -906,7 +906,7 @@
         <v>89</v>
       </c>
       <c r="K5">
-        <v>2021</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -941,6 +941,7 @@
         <v>89</v>
       </c>
       <c r="K6">
+        <f>K2</f>
         <v>2021</v>
       </c>
     </row>
@@ -976,7 +977,8 @@
         <v>89</v>
       </c>
       <c r="K7">
-        <v>2021</v>
+        <f t="shared" ref="K7:K70" si="0">K3</f>
+        <v>2022</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1011,7 +1013,8 @@
         <v>89</v>
       </c>
       <c r="K8">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1046,7 +1049,8 @@
         <v>89</v>
       </c>
       <c r="K9">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1081,6 +1085,7 @@
         <v>89</v>
       </c>
       <c r="K10">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
@@ -1116,7 +1121,8 @@
         <v>89</v>
       </c>
       <c r="K11">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1151,7 +1157,8 @@
         <v>89</v>
       </c>
       <c r="K12">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1186,7 +1193,8 @@
         <v>89</v>
       </c>
       <c r="K13">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1221,6 +1229,7 @@
         <v>89</v>
       </c>
       <c r="K14">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
@@ -1256,7 +1265,8 @@
         <v>89</v>
       </c>
       <c r="K15">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1291,7 +1301,8 @@
         <v>89</v>
       </c>
       <c r="K16">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1326,7 +1337,8 @@
         <v>89</v>
       </c>
       <c r="K17">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1361,6 +1373,7 @@
         <v>89</v>
       </c>
       <c r="K18">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
@@ -1396,7 +1409,8 @@
         <v>89</v>
       </c>
       <c r="K19">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1431,7 +1445,8 @@
         <v>89</v>
       </c>
       <c r="K20">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1466,7 +1481,8 @@
         <v>89</v>
       </c>
       <c r="K21">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1501,6 +1517,7 @@
         <v>89</v>
       </c>
       <c r="K22">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
@@ -1536,7 +1553,8 @@
         <v>89</v>
       </c>
       <c r="K23">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1571,7 +1589,8 @@
         <v>89</v>
       </c>
       <c r="K24">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1606,7 +1625,8 @@
         <v>89</v>
       </c>
       <c r="K25">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1641,6 +1661,7 @@
         <v>89</v>
       </c>
       <c r="K26">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
@@ -1676,7 +1697,8 @@
         <v>89</v>
       </c>
       <c r="K27">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1711,7 +1733,8 @@
         <v>89</v>
       </c>
       <c r="K28">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1746,7 +1769,8 @@
         <v>89</v>
       </c>
       <c r="K29">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1781,6 +1805,7 @@
         <v>89</v>
       </c>
       <c r="K30">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
@@ -1816,7 +1841,8 @@
         <v>89</v>
       </c>
       <c r="K31">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1851,7 +1877,8 @@
         <v>89</v>
       </c>
       <c r="K32">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1886,7 +1913,8 @@
         <v>89</v>
       </c>
       <c r="K33">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1921,6 +1949,7 @@
         <v>89</v>
       </c>
       <c r="K34">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
@@ -1956,7 +1985,8 @@
         <v>89</v>
       </c>
       <c r="K35">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1991,7 +2021,8 @@
         <v>89</v>
       </c>
       <c r="K36">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2026,7 +2057,8 @@
         <v>89</v>
       </c>
       <c r="K37">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2061,6 +2093,7 @@
         <v>89</v>
       </c>
       <c r="K38">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
@@ -2096,7 +2129,8 @@
         <v>89</v>
       </c>
       <c r="K39">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2131,7 +2165,8 @@
         <v>89</v>
       </c>
       <c r="K40">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2166,7 +2201,8 @@
         <v>89</v>
       </c>
       <c r="K41">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2201,6 +2237,7 @@
         <v>89</v>
       </c>
       <c r="K42">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
@@ -2236,7 +2273,8 @@
         <v>89</v>
       </c>
       <c r="K43">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2271,7 +2309,8 @@
         <v>89</v>
       </c>
       <c r="K44">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2306,7 +2345,8 @@
         <v>89</v>
       </c>
       <c r="K45">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2341,6 +2381,7 @@
         <v>89</v>
       </c>
       <c r="K46">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
@@ -2376,7 +2417,8 @@
         <v>89</v>
       </c>
       <c r="K47">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2411,7 +2453,8 @@
         <v>89</v>
       </c>
       <c r="K48">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2446,7 +2489,8 @@
         <v>89</v>
       </c>
       <c r="K49">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2481,6 +2525,7 @@
         <v>89</v>
       </c>
       <c r="K50">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
@@ -2516,7 +2561,8 @@
         <v>89</v>
       </c>
       <c r="K51">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2551,7 +2597,8 @@
         <v>90</v>
       </c>
       <c r="K52">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2586,7 +2633,8 @@
         <v>90</v>
       </c>
       <c r="K53">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2621,6 +2669,7 @@
         <v>90</v>
       </c>
       <c r="K54">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
@@ -2656,7 +2705,8 @@
         <v>90</v>
       </c>
       <c r="K55">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2691,7 +2741,8 @@
         <v>90</v>
       </c>
       <c r="K56">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2726,7 +2777,8 @@
         <v>90</v>
       </c>
       <c r="K57">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2761,6 +2813,7 @@
         <v>90</v>
       </c>
       <c r="K58">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
@@ -2796,7 +2849,8 @@
         <v>90</v>
       </c>
       <c r="K59">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2831,7 +2885,8 @@
         <v>90</v>
       </c>
       <c r="K60">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2866,7 +2921,8 @@
         <v>90</v>
       </c>
       <c r="K61">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2901,6 +2957,7 @@
         <v>90</v>
       </c>
       <c r="K62">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
@@ -2936,7 +2993,8 @@
         <v>90</v>
       </c>
       <c r="K63">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -2971,7 +3029,8 @@
         <v>90</v>
       </c>
       <c r="K64">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3006,7 +3065,8 @@
         <v>90</v>
       </c>
       <c r="K65">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3041,6 +3101,7 @@
         <v>90</v>
       </c>
       <c r="K66">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
@@ -3076,7 +3137,8 @@
         <v>90</v>
       </c>
       <c r="K67">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3111,7 +3173,8 @@
         <v>90</v>
       </c>
       <c r="K68">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3146,7 +3209,8 @@
         <v>90</v>
       </c>
       <c r="K69">
-        <v>2021</v>
+        <f t="shared" si="0"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3181,6 +3245,7 @@
         <v>90</v>
       </c>
       <c r="K70">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
     </row>
@@ -3216,7 +3281,8 @@
         <v>90</v>
       </c>
       <c r="K71">
-        <v>2021</v>
+        <f t="shared" ref="K71:K134" si="1">K67</f>
+        <v>2022</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3251,7 +3317,8 @@
         <v>90</v>
       </c>
       <c r="K72">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3286,7 +3353,8 @@
         <v>90</v>
       </c>
       <c r="K73">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3321,6 +3389,7 @@
         <v>90</v>
       </c>
       <c r="K74">
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
     </row>
@@ -3356,7 +3425,8 @@
         <v>90</v>
       </c>
       <c r="K75">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3391,7 +3461,8 @@
         <v>90</v>
       </c>
       <c r="K76">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3426,7 +3497,8 @@
         <v>90</v>
       </c>
       <c r="K77">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3461,6 +3533,7 @@
         <v>90</v>
       </c>
       <c r="K78">
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
     </row>
@@ -3496,7 +3569,8 @@
         <v>90</v>
       </c>
       <c r="K79">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3531,7 +3605,8 @@
         <v>90</v>
       </c>
       <c r="K80">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3566,7 +3641,8 @@
         <v>90</v>
       </c>
       <c r="K81">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3601,6 +3677,7 @@
         <v>90</v>
       </c>
       <c r="K82">
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
     </row>
@@ -3636,7 +3713,8 @@
         <v>90</v>
       </c>
       <c r="K83">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -3671,7 +3749,8 @@
         <v>90</v>
       </c>
       <c r="K84">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -3706,7 +3785,8 @@
         <v>90</v>
       </c>
       <c r="K85">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -3741,6 +3821,7 @@
         <v>90</v>
       </c>
       <c r="K86">
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
     </row>
@@ -3776,7 +3857,8 @@
         <v>90</v>
       </c>
       <c r="K87">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -3811,7 +3893,8 @@
         <v>90</v>
       </c>
       <c r="K88">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -3846,7 +3929,8 @@
         <v>90</v>
       </c>
       <c r="K89">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -3881,6 +3965,7 @@
         <v>90</v>
       </c>
       <c r="K90">
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
     </row>
@@ -3916,7 +4001,8 @@
         <v>90</v>
       </c>
       <c r="K91">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -3951,7 +4037,8 @@
         <v>90</v>
       </c>
       <c r="K92">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -3986,7 +4073,8 @@
         <v>90</v>
       </c>
       <c r="K93">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4021,6 +4109,7 @@
         <v>90</v>
       </c>
       <c r="K94">
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
     </row>
@@ -4056,7 +4145,8 @@
         <v>90</v>
       </c>
       <c r="K95">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4091,7 +4181,8 @@
         <v>90</v>
       </c>
       <c r="K96">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4126,7 +4217,8 @@
         <v>90</v>
       </c>
       <c r="K97">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -4161,6 +4253,7 @@
         <v>90</v>
       </c>
       <c r="K98">
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
     </row>
@@ -4196,7 +4289,8 @@
         <v>90</v>
       </c>
       <c r="K99">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4231,7 +4325,8 @@
         <v>90</v>
       </c>
       <c r="K100">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4266,7 +4361,8 @@
         <v>90</v>
       </c>
       <c r="K101">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4301,6 +4397,7 @@
         <v>91</v>
       </c>
       <c r="K102">
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
     </row>
@@ -4336,7 +4433,8 @@
         <v>91</v>
       </c>
       <c r="K103">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4371,7 +4469,8 @@
         <v>91</v>
       </c>
       <c r="K104">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4406,7 +4505,8 @@
         <v>91</v>
       </c>
       <c r="K105">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4441,6 +4541,7 @@
         <v>91</v>
       </c>
       <c r="K106">
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
     </row>
@@ -4476,7 +4577,8 @@
         <v>91</v>
       </c>
       <c r="K107">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4511,7 +4613,8 @@
         <v>91</v>
       </c>
       <c r="K108">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4546,7 +4649,8 @@
         <v>91</v>
       </c>
       <c r="K109">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -4581,6 +4685,7 @@
         <v>91</v>
       </c>
       <c r="K110">
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
     </row>
@@ -4616,7 +4721,8 @@
         <v>91</v>
       </c>
       <c r="K111">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -4651,7 +4757,8 @@
         <v>91</v>
       </c>
       <c r="K112">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -4686,7 +4793,8 @@
         <v>91</v>
       </c>
       <c r="K113">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -4721,6 +4829,7 @@
         <v>91</v>
       </c>
       <c r="K114">
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
     </row>
@@ -4756,7 +4865,8 @@
         <v>91</v>
       </c>
       <c r="K115">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -4791,7 +4901,8 @@
         <v>91</v>
       </c>
       <c r="K116">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -4826,7 +4937,8 @@
         <v>91</v>
       </c>
       <c r="K117">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -4861,6 +4973,7 @@
         <v>91</v>
       </c>
       <c r="K118">
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
     </row>
@@ -4896,7 +5009,8 @@
         <v>91</v>
       </c>
       <c r="K119">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -4931,7 +5045,8 @@
         <v>91</v>
       </c>
       <c r="K120">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -4966,7 +5081,8 @@
         <v>91</v>
       </c>
       <c r="K121">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5001,6 +5117,7 @@
         <v>91</v>
       </c>
       <c r="K122">
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
     </row>
@@ -5036,7 +5153,8 @@
         <v>91</v>
       </c>
       <c r="K123">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5071,7 +5189,8 @@
         <v>91</v>
       </c>
       <c r="K124">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5106,7 +5225,8 @@
         <v>91</v>
       </c>
       <c r="K125">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5141,6 +5261,7 @@
         <v>91</v>
       </c>
       <c r="K126">
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
     </row>
@@ -5176,7 +5297,8 @@
         <v>91</v>
       </c>
       <c r="K127">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5211,7 +5333,8 @@
         <v>91</v>
       </c>
       <c r="K128">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -5246,7 +5369,8 @@
         <v>91</v>
       </c>
       <c r="K129">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5281,6 +5405,7 @@
         <v>91</v>
       </c>
       <c r="K130">
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
     </row>
@@ -5316,7 +5441,8 @@
         <v>91</v>
       </c>
       <c r="K131">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -5351,7 +5477,8 @@
         <v>91</v>
       </c>
       <c r="K132">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -5386,7 +5513,8 @@
         <v>91</v>
       </c>
       <c r="K133">
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5421,6 +5549,7 @@
         <v>91</v>
       </c>
       <c r="K134">
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
     </row>
@@ -5456,7 +5585,8 @@
         <v>91</v>
       </c>
       <c r="K135">
-        <v>2021</v>
+        <f t="shared" ref="K135:K198" si="2">K131</f>
+        <v>2022</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5491,7 +5621,8 @@
         <v>91</v>
       </c>
       <c r="K136">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5526,7 +5657,8 @@
         <v>91</v>
       </c>
       <c r="K137">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5561,6 +5693,7 @@
         <v>91</v>
       </c>
       <c r="K138">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -5596,7 +5729,8 @@
         <v>91</v>
       </c>
       <c r="K139">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -5631,7 +5765,8 @@
         <v>91</v>
       </c>
       <c r="K140">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -5666,7 +5801,8 @@
         <v>91</v>
       </c>
       <c r="K141">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -5701,6 +5837,7 @@
         <v>91</v>
       </c>
       <c r="K142">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -5736,7 +5873,8 @@
         <v>91</v>
       </c>
       <c r="K143">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -5771,7 +5909,8 @@
         <v>91</v>
       </c>
       <c r="K144">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -5806,7 +5945,8 @@
         <v>91</v>
       </c>
       <c r="K145">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -5841,6 +5981,7 @@
         <v>91</v>
       </c>
       <c r="K146">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -5876,7 +6017,8 @@
         <v>91</v>
       </c>
       <c r="K147">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -5911,7 +6053,8 @@
         <v>91</v>
       </c>
       <c r="K148">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -5946,7 +6089,8 @@
         <v>91</v>
       </c>
       <c r="K149">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -5981,6 +6125,7 @@
         <v>91</v>
       </c>
       <c r="K150">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -6016,7 +6161,8 @@
         <v>91</v>
       </c>
       <c r="K151">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -6051,7 +6197,8 @@
         <v>92</v>
       </c>
       <c r="K152">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -6086,7 +6233,8 @@
         <v>92</v>
       </c>
       <c r="K153">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -6121,6 +6269,7 @@
         <v>92</v>
       </c>
       <c r="K154">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -6156,7 +6305,8 @@
         <v>92</v>
       </c>
       <c r="K155">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -6191,7 +6341,8 @@
         <v>92</v>
       </c>
       <c r="K156">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -6226,7 +6377,8 @@
         <v>92</v>
       </c>
       <c r="K157">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -6261,6 +6413,7 @@
         <v>92</v>
       </c>
       <c r="K158">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -6296,7 +6449,8 @@
         <v>92</v>
       </c>
       <c r="K159">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -6331,7 +6485,8 @@
         <v>92</v>
       </c>
       <c r="K160">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -6366,7 +6521,8 @@
         <v>92</v>
       </c>
       <c r="K161">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -6401,6 +6557,7 @@
         <v>92</v>
       </c>
       <c r="K162">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -6436,7 +6593,8 @@
         <v>92</v>
       </c>
       <c r="K163">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -6471,7 +6629,8 @@
         <v>92</v>
       </c>
       <c r="K164">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -6506,7 +6665,8 @@
         <v>92</v>
       </c>
       <c r="K165">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -6541,6 +6701,7 @@
         <v>92</v>
       </c>
       <c r="K166">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -6576,7 +6737,8 @@
         <v>92</v>
       </c>
       <c r="K167">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -6611,7 +6773,8 @@
         <v>92</v>
       </c>
       <c r="K168">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -6646,7 +6809,8 @@
         <v>92</v>
       </c>
       <c r="K169">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -6681,6 +6845,7 @@
         <v>92</v>
       </c>
       <c r="K170">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -6716,7 +6881,8 @@
         <v>92</v>
       </c>
       <c r="K171">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -6751,7 +6917,8 @@
         <v>92</v>
       </c>
       <c r="K172">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -6786,7 +6953,8 @@
         <v>92</v>
       </c>
       <c r="K173">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -6821,6 +6989,7 @@
         <v>92</v>
       </c>
       <c r="K174">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -6856,7 +7025,8 @@
         <v>92</v>
       </c>
       <c r="K175">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -6891,7 +7061,8 @@
         <v>92</v>
       </c>
       <c r="K176">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -6926,7 +7097,8 @@
         <v>92</v>
       </c>
       <c r="K177">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -6961,6 +7133,7 @@
         <v>92</v>
       </c>
       <c r="K178">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -6996,7 +7169,8 @@
         <v>92</v>
       </c>
       <c r="K179">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -7031,7 +7205,8 @@
         <v>92</v>
       </c>
       <c r="K180">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -7066,7 +7241,8 @@
         <v>92</v>
       </c>
       <c r="K181">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -7101,6 +7277,7 @@
         <v>92</v>
       </c>
       <c r="K182">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -7136,7 +7313,8 @@
         <v>92</v>
       </c>
       <c r="K183">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -7171,7 +7349,8 @@
         <v>92</v>
       </c>
       <c r="K184">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -7206,7 +7385,8 @@
         <v>92</v>
       </c>
       <c r="K185">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -7241,6 +7421,7 @@
         <v>92</v>
       </c>
       <c r="K186">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -7276,7 +7457,8 @@
         <v>92</v>
       </c>
       <c r="K187">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -7311,7 +7493,8 @@
         <v>92</v>
       </c>
       <c r="K188">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -7346,7 +7529,8 @@
         <v>92</v>
       </c>
       <c r="K189">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -7381,6 +7565,7 @@
         <v>92</v>
       </c>
       <c r="K190">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -7416,7 +7601,8 @@
         <v>92</v>
       </c>
       <c r="K191">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -7451,7 +7637,8 @@
         <v>92</v>
       </c>
       <c r="K192">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -7486,7 +7673,8 @@
         <v>92</v>
       </c>
       <c r="K193">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -7521,6 +7709,7 @@
         <v>92</v>
       </c>
       <c r="K194">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -7556,7 +7745,8 @@
         <v>92</v>
       </c>
       <c r="K195">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -7591,7 +7781,8 @@
         <v>92</v>
       </c>
       <c r="K196">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -7626,7 +7817,8 @@
         <v>92</v>
       </c>
       <c r="K197">
-        <v>2021</v>
+        <f t="shared" si="2"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -7661,6 +7853,7 @@
         <v>92</v>
       </c>
       <c r="K198">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
     </row>
@@ -7696,7 +7889,8 @@
         <v>92</v>
       </c>
       <c r="K199">
-        <v>2021</v>
+        <f t="shared" ref="K199:K262" si="3">K195</f>
+        <v>2022</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -7731,7 +7925,8 @@
         <v>92</v>
       </c>
       <c r="K200">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -7766,7 +7961,8 @@
         <v>92</v>
       </c>
       <c r="K201">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -7801,6 +7997,7 @@
         <v>93</v>
       </c>
       <c r="K202">
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -7836,7 +8033,8 @@
         <v>93</v>
       </c>
       <c r="K203">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -7871,7 +8069,8 @@
         <v>93</v>
       </c>
       <c r="K204">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -7906,7 +8105,8 @@
         <v>93</v>
       </c>
       <c r="K205">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -7941,6 +8141,7 @@
         <v>93</v>
       </c>
       <c r="K206">
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -7976,7 +8177,8 @@
         <v>93</v>
       </c>
       <c r="K207">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -8011,7 +8213,8 @@
         <v>93</v>
       </c>
       <c r="K208">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -8046,7 +8249,8 @@
         <v>93</v>
       </c>
       <c r="K209">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -8081,6 +8285,7 @@
         <v>93</v>
       </c>
       <c r="K210">
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -8116,7 +8321,8 @@
         <v>93</v>
       </c>
       <c r="K211">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -8151,7 +8357,8 @@
         <v>93</v>
       </c>
       <c r="K212">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -8186,7 +8393,8 @@
         <v>93</v>
       </c>
       <c r="K213">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -8221,6 +8429,7 @@
         <v>93</v>
       </c>
       <c r="K214">
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -8256,7 +8465,8 @@
         <v>93</v>
       </c>
       <c r="K215">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -8291,7 +8501,8 @@
         <v>93</v>
       </c>
       <c r="K216">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -8326,7 +8537,8 @@
         <v>93</v>
       </c>
       <c r="K217">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -8361,6 +8573,7 @@
         <v>93</v>
       </c>
       <c r="K218">
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -8396,7 +8609,8 @@
         <v>93</v>
       </c>
       <c r="K219">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -8431,7 +8645,8 @@
         <v>93</v>
       </c>
       <c r="K220">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -8466,7 +8681,8 @@
         <v>93</v>
       </c>
       <c r="K221">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -8501,6 +8717,7 @@
         <v>93</v>
       </c>
       <c r="K222">
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -8536,7 +8753,8 @@
         <v>93</v>
       </c>
       <c r="K223">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -8571,7 +8789,8 @@
         <v>93</v>
       </c>
       <c r="K224">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -8606,7 +8825,8 @@
         <v>93</v>
       </c>
       <c r="K225">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -8641,6 +8861,7 @@
         <v>93</v>
       </c>
       <c r="K226">
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -8676,7 +8897,8 @@
         <v>93</v>
       </c>
       <c r="K227">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -8711,7 +8933,8 @@
         <v>93</v>
       </c>
       <c r="K228">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -8746,7 +8969,8 @@
         <v>93</v>
       </c>
       <c r="K229">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -8781,6 +9005,7 @@
         <v>93</v>
       </c>
       <c r="K230">
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -8816,7 +9041,8 @@
         <v>93</v>
       </c>
       <c r="K231">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -8851,7 +9077,8 @@
         <v>93</v>
       </c>
       <c r="K232">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -8886,7 +9113,8 @@
         <v>93</v>
       </c>
       <c r="K233">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -8921,6 +9149,7 @@
         <v>93</v>
       </c>
       <c r="K234">
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -8956,7 +9185,8 @@
         <v>93</v>
       </c>
       <c r="K235">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -8991,7 +9221,8 @@
         <v>93</v>
       </c>
       <c r="K236">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -9026,7 +9257,8 @@
         <v>93</v>
       </c>
       <c r="K237">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -9061,6 +9293,7 @@
         <v>93</v>
       </c>
       <c r="K238">
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -9096,7 +9329,8 @@
         <v>93</v>
       </c>
       <c r="K239">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -9131,7 +9365,8 @@
         <v>93</v>
       </c>
       <c r="K240">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -9166,7 +9401,8 @@
         <v>93</v>
       </c>
       <c r="K241">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -9201,6 +9437,7 @@
         <v>93</v>
       </c>
       <c r="K242">
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -9236,7 +9473,8 @@
         <v>93</v>
       </c>
       <c r="K243">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -9271,7 +9509,8 @@
         <v>93</v>
       </c>
       <c r="K244">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -9306,7 +9545,8 @@
         <v>93</v>
       </c>
       <c r="K245">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -9341,6 +9581,7 @@
         <v>93</v>
       </c>
       <c r="K246">
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -9376,7 +9617,8 @@
         <v>93</v>
       </c>
       <c r="K247">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -9411,7 +9653,8 @@
         <v>93</v>
       </c>
       <c r="K248">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -9446,7 +9689,8 @@
         <v>93</v>
       </c>
       <c r="K249">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -9481,6 +9725,7 @@
         <v>93</v>
       </c>
       <c r="K250">
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -9516,7 +9761,8 @@
         <v>93</v>
       </c>
       <c r="K251">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -9551,7 +9797,8 @@
         <v>94</v>
       </c>
       <c r="K252">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -9586,7 +9833,8 @@
         <v>94</v>
       </c>
       <c r="K253">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -9621,6 +9869,7 @@
         <v>94</v>
       </c>
       <c r="K254">
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -9656,7 +9905,8 @@
         <v>94</v>
       </c>
       <c r="K255">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -9691,7 +9941,8 @@
         <v>94</v>
       </c>
       <c r="K256">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -9726,7 +9977,8 @@
         <v>94</v>
       </c>
       <c r="K257">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -9761,6 +10013,7 @@
         <v>94</v>
       </c>
       <c r="K258">
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -9796,7 +10049,8 @@
         <v>94</v>
       </c>
       <c r="K259">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -9831,7 +10085,8 @@
         <v>94</v>
       </c>
       <c r="K260">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -9866,7 +10121,8 @@
         <v>94</v>
       </c>
       <c r="K261">
-        <v>2021</v>
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -9901,6 +10157,7 @@
         <v>94</v>
       </c>
       <c r="K262">
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -9936,7 +10193,8 @@
         <v>94</v>
       </c>
       <c r="K263">
-        <v>2021</v>
+        <f t="shared" ref="K263:K326" si="4">K259</f>
+        <v>2022</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -9971,7 +10229,8 @@
         <v>94</v>
       </c>
       <c r="K264">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -10006,7 +10265,8 @@
         <v>94</v>
       </c>
       <c r="K265">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -10041,6 +10301,7 @@
         <v>94</v>
       </c>
       <c r="K266">
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
     </row>
@@ -10076,7 +10337,8 @@
         <v>94</v>
       </c>
       <c r="K267">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -10111,7 +10373,8 @@
         <v>94</v>
       </c>
       <c r="K268">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -10146,7 +10409,8 @@
         <v>94</v>
       </c>
       <c r="K269">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -10181,6 +10445,7 @@
         <v>94</v>
       </c>
       <c r="K270">
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
     </row>
@@ -10216,7 +10481,8 @@
         <v>94</v>
       </c>
       <c r="K271">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -10251,7 +10517,8 @@
         <v>94</v>
       </c>
       <c r="K272">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -10286,7 +10553,8 @@
         <v>94</v>
       </c>
       <c r="K273">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -10321,6 +10589,7 @@
         <v>94</v>
       </c>
       <c r="K274">
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
     </row>
@@ -10356,7 +10625,8 @@
         <v>94</v>
       </c>
       <c r="K275">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -10391,7 +10661,8 @@
         <v>94</v>
       </c>
       <c r="K276">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -10426,7 +10697,8 @@
         <v>94</v>
       </c>
       <c r="K277">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -10461,6 +10733,7 @@
         <v>94</v>
       </c>
       <c r="K278">
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
     </row>
@@ -10496,7 +10769,8 @@
         <v>94</v>
       </c>
       <c r="K279">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -10531,7 +10805,8 @@
         <v>94</v>
       </c>
       <c r="K280">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -10566,7 +10841,8 @@
         <v>94</v>
       </c>
       <c r="K281">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -10601,6 +10877,7 @@
         <v>94</v>
       </c>
       <c r="K282">
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
     </row>
@@ -10636,7 +10913,8 @@
         <v>94</v>
       </c>
       <c r="K283">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
@@ -10671,7 +10949,8 @@
         <v>94</v>
       </c>
       <c r="K284">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
@@ -10706,7 +10985,8 @@
         <v>94</v>
       </c>
       <c r="K285">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
@@ -10741,6 +11021,7 @@
         <v>94</v>
       </c>
       <c r="K286">
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
     </row>
@@ -10776,7 +11057,8 @@
         <v>94</v>
       </c>
       <c r="K287">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
@@ -10811,7 +11093,8 @@
         <v>94</v>
       </c>
       <c r="K288">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
@@ -10846,7 +11129,8 @@
         <v>94</v>
       </c>
       <c r="K289">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
@@ -10881,6 +11165,7 @@
         <v>94</v>
       </c>
       <c r="K290">
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
     </row>
@@ -10916,7 +11201,8 @@
         <v>94</v>
       </c>
       <c r="K291">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
@@ -10951,7 +11237,8 @@
         <v>94</v>
       </c>
       <c r="K292">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
@@ -10986,7 +11273,8 @@
         <v>94</v>
       </c>
       <c r="K293">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
@@ -11021,6 +11309,7 @@
         <v>94</v>
       </c>
       <c r="K294">
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
     </row>
@@ -11056,7 +11345,8 @@
         <v>94</v>
       </c>
       <c r="K295">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
@@ -11091,7 +11381,8 @@
         <v>94</v>
       </c>
       <c r="K296">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
@@ -11126,7 +11417,8 @@
         <v>94</v>
       </c>
       <c r="K297">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
@@ -11161,6 +11453,7 @@
         <v>94</v>
       </c>
       <c r="K298">
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
     </row>
@@ -11196,7 +11489,8 @@
         <v>94</v>
       </c>
       <c r="K299">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
@@ -11231,7 +11525,8 @@
         <v>94</v>
       </c>
       <c r="K300">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
@@ -11266,7 +11561,8 @@
         <v>94</v>
       </c>
       <c r="K301">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
@@ -11301,6 +11597,7 @@
         <v>95</v>
       </c>
       <c r="K302">
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
     </row>
@@ -11336,7 +11633,8 @@
         <v>95</v>
       </c>
       <c r="K303">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
@@ -11371,7 +11669,8 @@
         <v>95</v>
       </c>
       <c r="K304">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
@@ -11406,7 +11705,8 @@
         <v>95</v>
       </c>
       <c r="K305">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
@@ -11441,6 +11741,7 @@
         <v>95</v>
       </c>
       <c r="K306">
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
     </row>
@@ -11476,7 +11777,8 @@
         <v>95</v>
       </c>
       <c r="K307">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
@@ -11511,7 +11813,8 @@
         <v>95</v>
       </c>
       <c r="K308">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
@@ -11546,7 +11849,8 @@
         <v>95</v>
       </c>
       <c r="K309">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
@@ -11581,6 +11885,7 @@
         <v>95</v>
       </c>
       <c r="K310">
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
     </row>
@@ -11616,7 +11921,8 @@
         <v>95</v>
       </c>
       <c r="K311">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
@@ -11651,7 +11957,8 @@
         <v>95</v>
       </c>
       <c r="K312">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
@@ -11686,7 +11993,8 @@
         <v>95</v>
       </c>
       <c r="K313">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
@@ -11721,6 +12029,7 @@
         <v>95</v>
       </c>
       <c r="K314">
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
     </row>
@@ -11756,7 +12065,8 @@
         <v>95</v>
       </c>
       <c r="K315">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
@@ -11791,7 +12101,8 @@
         <v>95</v>
       </c>
       <c r="K316">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
@@ -11826,7 +12137,8 @@
         <v>95</v>
       </c>
       <c r="K317">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
@@ -11861,6 +12173,7 @@
         <v>95</v>
       </c>
       <c r="K318">
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
     </row>
@@ -11896,7 +12209,8 @@
         <v>95</v>
       </c>
       <c r="K319">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
@@ -11931,7 +12245,8 @@
         <v>95</v>
       </c>
       <c r="K320">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
@@ -11966,7 +12281,8 @@
         <v>95</v>
       </c>
       <c r="K321">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
@@ -12001,6 +12317,7 @@
         <v>95</v>
       </c>
       <c r="K322">
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
     </row>
@@ -12036,7 +12353,8 @@
         <v>95</v>
       </c>
       <c r="K323">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
@@ -12071,7 +12389,8 @@
         <v>95</v>
       </c>
       <c r="K324">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
@@ -12106,7 +12425,8 @@
         <v>95</v>
       </c>
       <c r="K325">
-        <v>2021</v>
+        <f t="shared" si="4"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
@@ -12141,6 +12461,7 @@
         <v>95</v>
       </c>
       <c r="K326">
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
     </row>
@@ -12176,7 +12497,8 @@
         <v>95</v>
       </c>
       <c r="K327">
-        <v>2021</v>
+        <f t="shared" ref="K327:K390" si="5">K323</f>
+        <v>2022</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
@@ -12211,7 +12533,8 @@
         <v>95</v>
       </c>
       <c r="K328">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
@@ -12246,7 +12569,8 @@
         <v>95</v>
       </c>
       <c r="K329">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
@@ -12281,6 +12605,7 @@
         <v>95</v>
       </c>
       <c r="K330">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
     </row>
@@ -12316,7 +12641,8 @@
         <v>95</v>
       </c>
       <c r="K331">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
@@ -12351,7 +12677,8 @@
         <v>95</v>
       </c>
       <c r="K332">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
@@ -12386,7 +12713,8 @@
         <v>95</v>
       </c>
       <c r="K333">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
@@ -12421,6 +12749,7 @@
         <v>95</v>
       </c>
       <c r="K334">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
     </row>
@@ -12456,7 +12785,8 @@
         <v>95</v>
       </c>
       <c r="K335">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
@@ -12491,7 +12821,8 @@
         <v>95</v>
       </c>
       <c r="K336">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
@@ -12526,7 +12857,8 @@
         <v>95</v>
       </c>
       <c r="K337">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
@@ -12561,6 +12893,7 @@
         <v>95</v>
       </c>
       <c r="K338">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
     </row>
@@ -12596,7 +12929,8 @@
         <v>95</v>
       </c>
       <c r="K339">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
@@ -12631,7 +12965,8 @@
         <v>95</v>
       </c>
       <c r="K340">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
@@ -12666,7 +13001,8 @@
         <v>95</v>
       </c>
       <c r="K341">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
@@ -12701,6 +13037,7 @@
         <v>95</v>
       </c>
       <c r="K342">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
     </row>
@@ -12736,7 +13073,8 @@
         <v>95</v>
       </c>
       <c r="K343">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
@@ -12771,7 +13109,8 @@
         <v>95</v>
       </c>
       <c r="K344">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
@@ -12806,7 +13145,8 @@
         <v>95</v>
       </c>
       <c r="K345">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
@@ -12841,6 +13181,7 @@
         <v>95</v>
       </c>
       <c r="K346">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
     </row>
@@ -12876,7 +13217,8 @@
         <v>95</v>
       </c>
       <c r="K347">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
@@ -12911,7 +13253,8 @@
         <v>95</v>
       </c>
       <c r="K348">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
@@ -12946,7 +13289,8 @@
         <v>95</v>
       </c>
       <c r="K349">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
@@ -12981,6 +13325,7 @@
         <v>95</v>
       </c>
       <c r="K350">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
     </row>
@@ -13016,7 +13361,8 @@
         <v>95</v>
       </c>
       <c r="K351">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
@@ -13051,7 +13397,8 @@
         <v>96</v>
       </c>
       <c r="K352">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
@@ -13086,7 +13433,8 @@
         <v>96</v>
       </c>
       <c r="K353">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
@@ -13121,6 +13469,7 @@
         <v>96</v>
       </c>
       <c r="K354">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
     </row>
@@ -13156,7 +13505,8 @@
         <v>96</v>
       </c>
       <c r="K355">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
@@ -13191,7 +13541,8 @@
         <v>96</v>
       </c>
       <c r="K356">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
@@ -13226,7 +13577,8 @@
         <v>96</v>
       </c>
       <c r="K357">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
@@ -13261,6 +13613,7 @@
         <v>96</v>
       </c>
       <c r="K358">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
     </row>
@@ -13296,7 +13649,8 @@
         <v>96</v>
       </c>
       <c r="K359">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
@@ -13331,7 +13685,8 @@
         <v>96</v>
       </c>
       <c r="K360">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
@@ -13366,7 +13721,8 @@
         <v>96</v>
       </c>
       <c r="K361">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
@@ -13401,6 +13757,7 @@
         <v>96</v>
       </c>
       <c r="K362">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
     </row>
@@ -13436,7 +13793,8 @@
         <v>96</v>
       </c>
       <c r="K363">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
@@ -13471,7 +13829,8 @@
         <v>96</v>
       </c>
       <c r="K364">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
@@ -13506,7 +13865,8 @@
         <v>96</v>
       </c>
       <c r="K365">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
@@ -13541,6 +13901,7 @@
         <v>96</v>
       </c>
       <c r="K366">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
     </row>
@@ -13576,7 +13937,8 @@
         <v>96</v>
       </c>
       <c r="K367">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
@@ -13611,7 +13973,8 @@
         <v>96</v>
       </c>
       <c r="K368">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
@@ -13646,7 +14009,8 @@
         <v>96</v>
       </c>
       <c r="K369">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
@@ -13681,6 +14045,7 @@
         <v>96</v>
       </c>
       <c r="K370">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
     </row>
@@ -13716,7 +14081,8 @@
         <v>96</v>
       </c>
       <c r="K371">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
@@ -13751,7 +14117,8 @@
         <v>96</v>
       </c>
       <c r="K372">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
@@ -13786,7 +14153,8 @@
         <v>96</v>
       </c>
       <c r="K373">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
@@ -13821,6 +14189,7 @@
         <v>96</v>
       </c>
       <c r="K374">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
     </row>
@@ -13856,7 +14225,8 @@
         <v>96</v>
       </c>
       <c r="K375">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
@@ -13891,7 +14261,8 @@
         <v>96</v>
       </c>
       <c r="K376">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
@@ -13926,7 +14297,8 @@
         <v>96</v>
       </c>
       <c r="K377">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
@@ -13961,6 +14333,7 @@
         <v>96</v>
       </c>
       <c r="K378">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
     </row>
@@ -13996,7 +14369,8 @@
         <v>96</v>
       </c>
       <c r="K379">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
@@ -14031,7 +14405,8 @@
         <v>96</v>
       </c>
       <c r="K380">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
@@ -14066,7 +14441,8 @@
         <v>96</v>
       </c>
       <c r="K381">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
@@ -14101,6 +14477,7 @@
         <v>96</v>
       </c>
       <c r="K382">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
     </row>
@@ -14136,7 +14513,8 @@
         <v>96</v>
       </c>
       <c r="K383">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
@@ -14171,7 +14549,8 @@
         <v>96</v>
       </c>
       <c r="K384">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
@@ -14206,7 +14585,8 @@
         <v>96</v>
       </c>
       <c r="K385">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
@@ -14241,6 +14621,7 @@
         <v>96</v>
       </c>
       <c r="K386">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
     </row>
@@ -14276,7 +14657,8 @@
         <v>96</v>
       </c>
       <c r="K387">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
@@ -14311,7 +14693,8 @@
         <v>96</v>
       </c>
       <c r="K388">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
@@ -14346,7 +14729,8 @@
         <v>96</v>
       </c>
       <c r="K389">
-        <v>2021</v>
+        <f t="shared" si="5"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
@@ -14381,6 +14765,7 @@
         <v>96</v>
       </c>
       <c r="K390">
+        <f t="shared" si="5"/>
         <v>2021</v>
       </c>
     </row>
@@ -14416,7 +14801,8 @@
         <v>96</v>
       </c>
       <c r="K391">
-        <v>2021</v>
+        <f t="shared" ref="K391:K454" si="6">K387</f>
+        <v>2022</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
@@ -14451,7 +14837,8 @@
         <v>96</v>
       </c>
       <c r="K392">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
@@ -14486,7 +14873,8 @@
         <v>96</v>
       </c>
       <c r="K393">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
@@ -14521,6 +14909,7 @@
         <v>96</v>
       </c>
       <c r="K394">
+        <f t="shared" si="6"/>
         <v>2021</v>
       </c>
     </row>
@@ -14556,7 +14945,8 @@
         <v>96</v>
       </c>
       <c r="K395">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
@@ -14591,7 +14981,8 @@
         <v>96</v>
       </c>
       <c r="K396">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
@@ -14626,7 +15017,8 @@
         <v>96</v>
       </c>
       <c r="K397">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
@@ -14661,6 +15053,7 @@
         <v>96</v>
       </c>
       <c r="K398">
+        <f t="shared" si="6"/>
         <v>2021</v>
       </c>
     </row>
@@ -14696,7 +15089,8 @@
         <v>96</v>
       </c>
       <c r="K399">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
@@ -14731,7 +15125,8 @@
         <v>96</v>
       </c>
       <c r="K400">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
@@ -14766,7 +15161,8 @@
         <v>96</v>
       </c>
       <c r="K401">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
@@ -14801,6 +15197,7 @@
         <v>97</v>
       </c>
       <c r="K402">
+        <f t="shared" si="6"/>
         <v>2021</v>
       </c>
     </row>
@@ -14836,7 +15233,8 @@
         <v>97</v>
       </c>
       <c r="K403">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
@@ -14871,7 +15269,8 @@
         <v>97</v>
       </c>
       <c r="K404">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
@@ -14906,7 +15305,8 @@
         <v>97</v>
       </c>
       <c r="K405">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
@@ -14941,6 +15341,7 @@
         <v>97</v>
       </c>
       <c r="K406">
+        <f t="shared" si="6"/>
         <v>2021</v>
       </c>
     </row>
@@ -14976,7 +15377,8 @@
         <v>97</v>
       </c>
       <c r="K407">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
@@ -15011,7 +15413,8 @@
         <v>97</v>
       </c>
       <c r="K408">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
@@ -15046,7 +15449,8 @@
         <v>97</v>
       </c>
       <c r="K409">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
@@ -15081,6 +15485,7 @@
         <v>97</v>
       </c>
       <c r="K410">
+        <f t="shared" si="6"/>
         <v>2021</v>
       </c>
     </row>
@@ -15116,7 +15521,8 @@
         <v>97</v>
       </c>
       <c r="K411">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
@@ -15151,7 +15557,8 @@
         <v>97</v>
       </c>
       <c r="K412">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
@@ -15186,7 +15593,8 @@
         <v>97</v>
       </c>
       <c r="K413">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
@@ -15221,6 +15629,7 @@
         <v>97</v>
       </c>
       <c r="K414">
+        <f t="shared" si="6"/>
         <v>2021</v>
       </c>
     </row>
@@ -15256,7 +15665,8 @@
         <v>97</v>
       </c>
       <c r="K415">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
@@ -15291,7 +15701,8 @@
         <v>97</v>
       </c>
       <c r="K416">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
@@ -15326,7 +15737,8 @@
         <v>97</v>
       </c>
       <c r="K417">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
@@ -15361,6 +15773,7 @@
         <v>97</v>
       </c>
       <c r="K418">
+        <f t="shared" si="6"/>
         <v>2021</v>
       </c>
     </row>
@@ -15396,7 +15809,8 @@
         <v>97</v>
       </c>
       <c r="K419">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
@@ -15431,7 +15845,8 @@
         <v>97</v>
       </c>
       <c r="K420">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
@@ -15466,7 +15881,8 @@
         <v>97</v>
       </c>
       <c r="K421">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
@@ -15501,6 +15917,7 @@
         <v>97</v>
       </c>
       <c r="K422">
+        <f t="shared" si="6"/>
         <v>2021</v>
       </c>
     </row>
@@ -15536,7 +15953,8 @@
         <v>97</v>
       </c>
       <c r="K423">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
@@ -15571,7 +15989,8 @@
         <v>97</v>
       </c>
       <c r="K424">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
@@ -15606,7 +16025,8 @@
         <v>97</v>
       </c>
       <c r="K425">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
@@ -15641,6 +16061,7 @@
         <v>97</v>
       </c>
       <c r="K426">
+        <f t="shared" si="6"/>
         <v>2021</v>
       </c>
     </row>
@@ -15676,7 +16097,8 @@
         <v>97</v>
       </c>
       <c r="K427">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
@@ -15711,7 +16133,8 @@
         <v>97</v>
       </c>
       <c r="K428">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
@@ -15746,7 +16169,8 @@
         <v>97</v>
       </c>
       <c r="K429">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
@@ -15781,6 +16205,7 @@
         <v>97</v>
       </c>
       <c r="K430">
+        <f t="shared" si="6"/>
         <v>2021</v>
       </c>
     </row>
@@ -15816,7 +16241,8 @@
         <v>97</v>
       </c>
       <c r="K431">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
@@ -15851,7 +16277,8 @@
         <v>97</v>
       </c>
       <c r="K432">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
@@ -15886,7 +16313,8 @@
         <v>97</v>
       </c>
       <c r="K433">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
@@ -15921,6 +16349,7 @@
         <v>97</v>
       </c>
       <c r="K434">
+        <f t="shared" si="6"/>
         <v>2021</v>
       </c>
     </row>
@@ -15956,7 +16385,8 @@
         <v>97</v>
       </c>
       <c r="K435">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
@@ -15991,7 +16421,8 @@
         <v>97</v>
       </c>
       <c r="K436">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
@@ -16026,7 +16457,8 @@
         <v>97</v>
       </c>
       <c r="K437">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
@@ -16061,6 +16493,7 @@
         <v>97</v>
       </c>
       <c r="K438">
+        <f t="shared" si="6"/>
         <v>2021</v>
       </c>
     </row>
@@ -16096,7 +16529,8 @@
         <v>97</v>
       </c>
       <c r="K439">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
@@ -16131,7 +16565,8 @@
         <v>97</v>
       </c>
       <c r="K440">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
@@ -16166,7 +16601,8 @@
         <v>97</v>
       </c>
       <c r="K441">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
@@ -16201,6 +16637,7 @@
         <v>97</v>
       </c>
       <c r="K442">
+        <f t="shared" si="6"/>
         <v>2021</v>
       </c>
     </row>
@@ -16236,7 +16673,8 @@
         <v>97</v>
       </c>
       <c r="K443">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
@@ -16271,7 +16709,8 @@
         <v>97</v>
       </c>
       <c r="K444">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
@@ -16306,7 +16745,8 @@
         <v>97</v>
       </c>
       <c r="K445">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
@@ -16341,6 +16781,7 @@
         <v>97</v>
       </c>
       <c r="K446">
+        <f t="shared" si="6"/>
         <v>2021</v>
       </c>
     </row>
@@ -16376,7 +16817,8 @@
         <v>97</v>
       </c>
       <c r="K447">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
@@ -16411,7 +16853,8 @@
         <v>97</v>
       </c>
       <c r="K448">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
@@ -16446,7 +16889,8 @@
         <v>97</v>
       </c>
       <c r="K449">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
@@ -16481,6 +16925,7 @@
         <v>97</v>
       </c>
       <c r="K450">
+        <f t="shared" si="6"/>
         <v>2021</v>
       </c>
     </row>
@@ -16516,7 +16961,8 @@
         <v>97</v>
       </c>
       <c r="K451">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="452" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16551,7 +16997,8 @@
         <v>98</v>
       </c>
       <c r="K452">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
@@ -16586,7 +17033,8 @@
         <v>98</v>
       </c>
       <c r="K453">
-        <v>2021</v>
+        <f t="shared" si="6"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
@@ -16621,6 +17069,7 @@
         <v>98</v>
       </c>
       <c r="K454">
+        <f t="shared" si="6"/>
         <v>2021</v>
       </c>
     </row>
@@ -16656,7 +17105,8 @@
         <v>98</v>
       </c>
       <c r="K455">
-        <v>2021</v>
+        <f t="shared" ref="K455:K518" si="7">K451</f>
+        <v>2022</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
@@ -16691,7 +17141,8 @@
         <v>98</v>
       </c>
       <c r="K456">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
@@ -16726,7 +17177,8 @@
         <v>98</v>
       </c>
       <c r="K457">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
@@ -16761,6 +17213,7 @@
         <v>98</v>
       </c>
       <c r="K458">
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
     </row>
@@ -16796,7 +17249,8 @@
         <v>98</v>
       </c>
       <c r="K459">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
@@ -16831,7 +17285,8 @@
         <v>98</v>
       </c>
       <c r="K460">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
@@ -16866,7 +17321,8 @@
         <v>98</v>
       </c>
       <c r="K461">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
@@ -16901,6 +17357,7 @@
         <v>98</v>
       </c>
       <c r="K462">
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
     </row>
@@ -16936,7 +17393,8 @@
         <v>98</v>
       </c>
       <c r="K463">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
@@ -16971,7 +17429,8 @@
         <v>98</v>
       </c>
       <c r="K464">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
@@ -17006,7 +17465,8 @@
         <v>98</v>
       </c>
       <c r="K465">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
@@ -17041,6 +17501,7 @@
         <v>98</v>
       </c>
       <c r="K466">
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
     </row>
@@ -17076,7 +17537,8 @@
         <v>98</v>
       </c>
       <c r="K467">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
@@ -17111,7 +17573,8 @@
         <v>98</v>
       </c>
       <c r="K468">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
@@ -17146,7 +17609,8 @@
         <v>98</v>
       </c>
       <c r="K469">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
@@ -17181,6 +17645,7 @@
         <v>98</v>
       </c>
       <c r="K470">
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
     </row>
@@ -17216,7 +17681,8 @@
         <v>98</v>
       </c>
       <c r="K471">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
@@ -17251,7 +17717,8 @@
         <v>98</v>
       </c>
       <c r="K472">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
@@ -17286,7 +17753,8 @@
         <v>98</v>
       </c>
       <c r="K473">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
@@ -17321,6 +17789,7 @@
         <v>98</v>
       </c>
       <c r="K474">
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
     </row>
@@ -17356,7 +17825,8 @@
         <v>98</v>
       </c>
       <c r="K475">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
@@ -17391,7 +17861,8 @@
         <v>98</v>
       </c>
       <c r="K476">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
@@ -17426,7 +17897,8 @@
         <v>98</v>
       </c>
       <c r="K477">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
@@ -17461,6 +17933,7 @@
         <v>98</v>
       </c>
       <c r="K478">
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
     </row>
@@ -17496,7 +17969,8 @@
         <v>98</v>
       </c>
       <c r="K479">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
@@ -17531,7 +18005,8 @@
         <v>98</v>
       </c>
       <c r="K480">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
@@ -17566,7 +18041,8 @@
         <v>98</v>
       </c>
       <c r="K481">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
@@ -17601,6 +18077,7 @@
         <v>98</v>
       </c>
       <c r="K482">
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
     </row>
@@ -17636,7 +18113,8 @@
         <v>98</v>
       </c>
       <c r="K483">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
@@ -17671,7 +18149,8 @@
         <v>98</v>
       </c>
       <c r="K484">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
@@ -17706,7 +18185,8 @@
         <v>98</v>
       </c>
       <c r="K485">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
@@ -17741,6 +18221,7 @@
         <v>98</v>
       </c>
       <c r="K486">
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
     </row>
@@ -17776,7 +18257,8 @@
         <v>98</v>
       </c>
       <c r="K487">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
@@ -17811,7 +18293,8 @@
         <v>98</v>
       </c>
       <c r="K488">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
@@ -17846,7 +18329,8 @@
         <v>98</v>
       </c>
       <c r="K489">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
@@ -17881,6 +18365,7 @@
         <v>98</v>
       </c>
       <c r="K490">
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
     </row>
@@ -17916,7 +18401,8 @@
         <v>98</v>
       </c>
       <c r="K491">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
@@ -17951,7 +18437,8 @@
         <v>98</v>
       </c>
       <c r="K492">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
@@ -17986,7 +18473,8 @@
         <v>98</v>
       </c>
       <c r="K493">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
@@ -18021,6 +18509,7 @@
         <v>98</v>
       </c>
       <c r="K494">
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
     </row>
@@ -18056,7 +18545,8 @@
         <v>98</v>
       </c>
       <c r="K495">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
@@ -18091,7 +18581,8 @@
         <v>98</v>
       </c>
       <c r="K496">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
@@ -18126,7 +18617,8 @@
         <v>98</v>
       </c>
       <c r="K497">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
@@ -18161,6 +18653,7 @@
         <v>98</v>
       </c>
       <c r="K498">
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
     </row>
@@ -18196,7 +18689,8 @@
         <v>98</v>
       </c>
       <c r="K499">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
@@ -18231,7 +18725,8 @@
         <v>98</v>
       </c>
       <c r="K500">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
@@ -18266,7 +18761,8 @@
         <v>98</v>
       </c>
       <c r="K501">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
@@ -18301,6 +18797,7 @@
         <v>99</v>
       </c>
       <c r="K502">
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
     </row>
@@ -18336,7 +18833,8 @@
         <v>99</v>
       </c>
       <c r="K503">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
@@ -18371,7 +18869,8 @@
         <v>99</v>
       </c>
       <c r="K504">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
@@ -18406,7 +18905,8 @@
         <v>99</v>
       </c>
       <c r="K505">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
@@ -18441,6 +18941,7 @@
         <v>99</v>
       </c>
       <c r="K506">
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
     </row>
@@ -18476,7 +18977,8 @@
         <v>99</v>
       </c>
       <c r="K507">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
@@ -18511,7 +19013,8 @@
         <v>99</v>
       </c>
       <c r="K508">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
@@ -18546,7 +19049,8 @@
         <v>99</v>
       </c>
       <c r="K509">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
@@ -18581,6 +19085,7 @@
         <v>99</v>
       </c>
       <c r="K510">
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
     </row>
@@ -18616,7 +19121,8 @@
         <v>99</v>
       </c>
       <c r="K511">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
@@ -18651,7 +19157,8 @@
         <v>99</v>
       </c>
       <c r="K512">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
@@ -18686,7 +19193,8 @@
         <v>99</v>
       </c>
       <c r="K513">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
@@ -18721,6 +19229,7 @@
         <v>99</v>
       </c>
       <c r="K514">
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
     </row>
@@ -18756,7 +19265,8 @@
         <v>99</v>
       </c>
       <c r="K515">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
@@ -18791,7 +19301,8 @@
         <v>99</v>
       </c>
       <c r="K516">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
@@ -18826,7 +19337,8 @@
         <v>99</v>
       </c>
       <c r="K517">
-        <v>2021</v>
+        <f t="shared" si="7"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
@@ -18861,6 +19373,7 @@
         <v>99</v>
       </c>
       <c r="K518">
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
     </row>
@@ -18896,7 +19409,8 @@
         <v>99</v>
       </c>
       <c r="K519">
-        <v>2021</v>
+        <f t="shared" ref="K519:K582" si="8">K515</f>
+        <v>2022</v>
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
@@ -18931,7 +19445,8 @@
         <v>99</v>
       </c>
       <c r="K520">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
@@ -18966,7 +19481,8 @@
         <v>99</v>
       </c>
       <c r="K521">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
@@ -19001,6 +19517,7 @@
         <v>99</v>
       </c>
       <c r="K522">
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
@@ -19036,7 +19553,8 @@
         <v>99</v>
       </c>
       <c r="K523">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
@@ -19071,7 +19589,8 @@
         <v>99</v>
       </c>
       <c r="K524">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
@@ -19106,7 +19625,8 @@
         <v>99</v>
       </c>
       <c r="K525">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
@@ -19141,6 +19661,7 @@
         <v>99</v>
       </c>
       <c r="K526">
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
@@ -19176,7 +19697,8 @@
         <v>99</v>
       </c>
       <c r="K527">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
@@ -19211,7 +19733,8 @@
         <v>99</v>
       </c>
       <c r="K528">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
@@ -19246,7 +19769,8 @@
         <v>99</v>
       </c>
       <c r="K529">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
@@ -19281,6 +19805,7 @@
         <v>99</v>
       </c>
       <c r="K530">
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
@@ -19316,7 +19841,8 @@
         <v>99</v>
       </c>
       <c r="K531">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
@@ -19351,7 +19877,8 @@
         <v>99</v>
       </c>
       <c r="K532">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
@@ -19386,7 +19913,8 @@
         <v>99</v>
       </c>
       <c r="K533">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
@@ -19421,6 +19949,7 @@
         <v>99</v>
       </c>
       <c r="K534">
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
@@ -19456,7 +19985,8 @@
         <v>99</v>
       </c>
       <c r="K535">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
@@ -19491,7 +20021,8 @@
         <v>99</v>
       </c>
       <c r="K536">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
@@ -19526,7 +20057,8 @@
         <v>99</v>
       </c>
       <c r="K537">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
@@ -19561,6 +20093,7 @@
         <v>99</v>
       </c>
       <c r="K538">
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
@@ -19596,7 +20129,8 @@
         <v>99</v>
       </c>
       <c r="K539">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
@@ -19631,7 +20165,8 @@
         <v>99</v>
       </c>
       <c r="K540">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
@@ -19666,7 +20201,8 @@
         <v>99</v>
       </c>
       <c r="K541">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
@@ -19701,6 +20237,7 @@
         <v>99</v>
       </c>
       <c r="K542">
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
@@ -19736,7 +20273,8 @@
         <v>99</v>
       </c>
       <c r="K543">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
@@ -19771,7 +20309,8 @@
         <v>99</v>
       </c>
       <c r="K544">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
@@ -19806,7 +20345,8 @@
         <v>99</v>
       </c>
       <c r="K545">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
@@ -19841,6 +20381,7 @@
         <v>99</v>
       </c>
       <c r="K546">
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
@@ -19876,7 +20417,8 @@
         <v>99</v>
       </c>
       <c r="K547">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
@@ -19911,7 +20453,8 @@
         <v>99</v>
       </c>
       <c r="K548">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
@@ -19946,7 +20489,8 @@
         <v>99</v>
       </c>
       <c r="K549">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
@@ -19981,6 +20525,7 @@
         <v>99</v>
       </c>
       <c r="K550">
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
@@ -20016,7 +20561,8 @@
         <v>99</v>
       </c>
       <c r="K551">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
@@ -20051,7 +20597,8 @@
         <v>100</v>
       </c>
       <c r="K552">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
@@ -20086,7 +20633,8 @@
         <v>100</v>
       </c>
       <c r="K553">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
@@ -20121,6 +20669,7 @@
         <v>100</v>
       </c>
       <c r="K554">
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
@@ -20156,7 +20705,8 @@
         <v>100</v>
       </c>
       <c r="K555">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
@@ -20191,7 +20741,8 @@
         <v>100</v>
       </c>
       <c r="K556">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
@@ -20226,7 +20777,8 @@
         <v>100</v>
       </c>
       <c r="K557">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
@@ -20261,6 +20813,7 @@
         <v>100</v>
       </c>
       <c r="K558">
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
@@ -20296,7 +20849,8 @@
         <v>100</v>
       </c>
       <c r="K559">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
@@ -20331,7 +20885,8 @@
         <v>100</v>
       </c>
       <c r="K560">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
@@ -20366,7 +20921,8 @@
         <v>100</v>
       </c>
       <c r="K561">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
@@ -20401,6 +20957,7 @@
         <v>100</v>
       </c>
       <c r="K562">
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
@@ -20436,7 +20993,8 @@
         <v>100</v>
       </c>
       <c r="K563">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
@@ -20471,7 +21029,8 @@
         <v>100</v>
       </c>
       <c r="K564">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
@@ -20506,7 +21065,8 @@
         <v>100</v>
       </c>
       <c r="K565">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
@@ -20541,6 +21101,7 @@
         <v>100</v>
       </c>
       <c r="K566">
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
@@ -20576,7 +21137,8 @@
         <v>100</v>
       </c>
       <c r="K567">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
@@ -20611,7 +21173,8 @@
         <v>100</v>
       </c>
       <c r="K568">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
@@ -20646,7 +21209,8 @@
         <v>100</v>
       </c>
       <c r="K569">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
@@ -20681,6 +21245,7 @@
         <v>100</v>
       </c>
       <c r="K570">
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
@@ -20716,7 +21281,8 @@
         <v>100</v>
       </c>
       <c r="K571">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
@@ -20751,7 +21317,8 @@
         <v>100</v>
       </c>
       <c r="K572">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
@@ -20786,7 +21353,8 @@
         <v>100</v>
       </c>
       <c r="K573">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
@@ -20821,6 +21389,7 @@
         <v>100</v>
       </c>
       <c r="K574">
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
@@ -20856,7 +21425,8 @@
         <v>100</v>
       </c>
       <c r="K575">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
@@ -20891,7 +21461,8 @@
         <v>100</v>
       </c>
       <c r="K576">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
@@ -20926,7 +21497,8 @@
         <v>100</v>
       </c>
       <c r="K577">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
@@ -20961,6 +21533,7 @@
         <v>100</v>
       </c>
       <c r="K578">
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
@@ -20996,7 +21569,8 @@
         <v>100</v>
       </c>
       <c r="K579">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
@@ -21031,7 +21605,8 @@
         <v>100</v>
       </c>
       <c r="K580">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
@@ -21066,7 +21641,8 @@
         <v>100</v>
       </c>
       <c r="K581">
-        <v>2021</v>
+        <f t="shared" si="8"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
@@ -21101,6 +21677,7 @@
         <v>100</v>
       </c>
       <c r="K582">
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
     </row>
@@ -21136,7 +21713,8 @@
         <v>100</v>
       </c>
       <c r="K583">
-        <v>2021</v>
+        <f t="shared" ref="K583:K646" si="9">K579</f>
+        <v>2022</v>
       </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
@@ -21171,7 +21749,8 @@
         <v>100</v>
       </c>
       <c r="K584">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
@@ -21206,7 +21785,8 @@
         <v>100</v>
       </c>
       <c r="K585">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
@@ -21241,6 +21821,7 @@
         <v>100</v>
       </c>
       <c r="K586">
+        <f t="shared" si="9"/>
         <v>2021</v>
       </c>
     </row>
@@ -21276,7 +21857,8 @@
         <v>100</v>
       </c>
       <c r="K587">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
@@ -21311,7 +21893,8 @@
         <v>100</v>
       </c>
       <c r="K588">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
@@ -21346,7 +21929,8 @@
         <v>100</v>
       </c>
       <c r="K589">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
@@ -21381,6 +21965,7 @@
         <v>100</v>
       </c>
       <c r="K590">
+        <f t="shared" si="9"/>
         <v>2021</v>
       </c>
     </row>
@@ -21416,7 +22001,8 @@
         <v>100</v>
       </c>
       <c r="K591">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
@@ -21451,7 +22037,8 @@
         <v>100</v>
       </c>
       <c r="K592">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
@@ -21486,7 +22073,8 @@
         <v>100</v>
       </c>
       <c r="K593">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
@@ -21521,6 +22109,7 @@
         <v>100</v>
       </c>
       <c r="K594">
+        <f t="shared" si="9"/>
         <v>2021</v>
       </c>
     </row>
@@ -21556,7 +22145,8 @@
         <v>100</v>
       </c>
       <c r="K595">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
@@ -21591,7 +22181,8 @@
         <v>100</v>
       </c>
       <c r="K596">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
@@ -21626,7 +22217,8 @@
         <v>100</v>
       </c>
       <c r="K597">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
@@ -21661,6 +22253,7 @@
         <v>100</v>
       </c>
       <c r="K598">
+        <f t="shared" si="9"/>
         <v>2021</v>
       </c>
     </row>
@@ -21696,7 +22289,8 @@
         <v>100</v>
       </c>
       <c r="K599">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
@@ -21731,7 +22325,8 @@
         <v>100</v>
       </c>
       <c r="K600">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
@@ -21766,7 +22361,8 @@
         <v>100</v>
       </c>
       <c r="K601">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
@@ -21801,6 +22397,7 @@
         <v>102</v>
       </c>
       <c r="K602">
+        <f t="shared" si="9"/>
         <v>2021</v>
       </c>
     </row>
@@ -21836,7 +22433,8 @@
         <v>102</v>
       </c>
       <c r="K603">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
@@ -21871,7 +22469,8 @@
         <v>102</v>
       </c>
       <c r="K604">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
@@ -21906,7 +22505,8 @@
         <v>102</v>
       </c>
       <c r="K605">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
@@ -21941,6 +22541,7 @@
         <v>102</v>
       </c>
       <c r="K606">
+        <f t="shared" si="9"/>
         <v>2021</v>
       </c>
     </row>
@@ -21976,7 +22577,8 @@
         <v>102</v>
       </c>
       <c r="K607">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
@@ -22011,7 +22613,8 @@
         <v>102</v>
       </c>
       <c r="K608">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
@@ -22046,7 +22649,8 @@
         <v>102</v>
       </c>
       <c r="K609">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
@@ -22081,6 +22685,7 @@
         <v>102</v>
       </c>
       <c r="K610">
+        <f t="shared" si="9"/>
         <v>2021</v>
       </c>
     </row>
@@ -22116,7 +22721,8 @@
         <v>102</v>
       </c>
       <c r="K611">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
@@ -22151,7 +22757,8 @@
         <v>102</v>
       </c>
       <c r="K612">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
@@ -22186,7 +22793,8 @@
         <v>102</v>
       </c>
       <c r="K613">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
@@ -22221,6 +22829,7 @@
         <v>102</v>
       </c>
       <c r="K614">
+        <f t="shared" si="9"/>
         <v>2021</v>
       </c>
     </row>
@@ -22256,7 +22865,8 @@
         <v>102</v>
       </c>
       <c r="K615">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
@@ -22291,7 +22901,8 @@
         <v>102</v>
       </c>
       <c r="K616">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
@@ -22326,7 +22937,8 @@
         <v>102</v>
       </c>
       <c r="K617">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
@@ -22361,6 +22973,7 @@
         <v>102</v>
       </c>
       <c r="K618">
+        <f t="shared" si="9"/>
         <v>2021</v>
       </c>
     </row>
@@ -22396,7 +23009,8 @@
         <v>102</v>
       </c>
       <c r="K619">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
@@ -22431,7 +23045,8 @@
         <v>102</v>
       </c>
       <c r="K620">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
@@ -22466,7 +23081,8 @@
         <v>102</v>
       </c>
       <c r="K621">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
@@ -22501,6 +23117,7 @@
         <v>102</v>
       </c>
       <c r="K622">
+        <f t="shared" si="9"/>
         <v>2021</v>
       </c>
     </row>
@@ -22536,7 +23153,8 @@
         <v>102</v>
       </c>
       <c r="K623">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
@@ -22571,7 +23189,8 @@
         <v>102</v>
       </c>
       <c r="K624">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
@@ -22606,7 +23225,8 @@
         <v>102</v>
       </c>
       <c r="K625">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
@@ -22641,6 +23261,7 @@
         <v>102</v>
       </c>
       <c r="K626">
+        <f t="shared" si="9"/>
         <v>2021</v>
       </c>
     </row>
@@ -22676,7 +23297,8 @@
         <v>102</v>
       </c>
       <c r="K627">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
@@ -22711,7 +23333,8 @@
         <v>102</v>
       </c>
       <c r="K628">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
@@ -22746,7 +23369,8 @@
         <v>102</v>
       </c>
       <c r="K629">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
@@ -22781,6 +23405,7 @@
         <v>102</v>
       </c>
       <c r="K630">
+        <f t="shared" si="9"/>
         <v>2021</v>
       </c>
     </row>
@@ -22816,7 +23441,8 @@
         <v>102</v>
       </c>
       <c r="K631">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
@@ -22851,7 +23477,8 @@
         <v>102</v>
       </c>
       <c r="K632">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
@@ -22886,7 +23513,8 @@
         <v>102</v>
       </c>
       <c r="K633">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
@@ -22921,6 +23549,7 @@
         <v>102</v>
       </c>
       <c r="K634">
+        <f t="shared" si="9"/>
         <v>2021</v>
       </c>
     </row>
@@ -22956,7 +23585,8 @@
         <v>102</v>
       </c>
       <c r="K635">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
@@ -22991,7 +23621,8 @@
         <v>102</v>
       </c>
       <c r="K636">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
@@ -23026,7 +23657,8 @@
         <v>102</v>
       </c>
       <c r="K637">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
@@ -23061,6 +23693,7 @@
         <v>102</v>
       </c>
       <c r="K638">
+        <f t="shared" si="9"/>
         <v>2021</v>
       </c>
     </row>
@@ -23096,7 +23729,8 @@
         <v>102</v>
       </c>
       <c r="K639">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
@@ -23131,7 +23765,8 @@
         <v>102</v>
       </c>
       <c r="K640">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
@@ -23166,7 +23801,8 @@
         <v>102</v>
       </c>
       <c r="K641">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
@@ -23201,6 +23837,7 @@
         <v>102</v>
       </c>
       <c r="K642">
+        <f t="shared" si="9"/>
         <v>2021</v>
       </c>
     </row>
@@ -23236,7 +23873,8 @@
         <v>102</v>
       </c>
       <c r="K643">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
@@ -23271,7 +23909,8 @@
         <v>102</v>
       </c>
       <c r="K644">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
@@ -23306,7 +23945,8 @@
         <v>102</v>
       </c>
       <c r="K645">
-        <v>2021</v>
+        <f t="shared" si="9"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
@@ -23341,6 +23981,7 @@
         <v>102</v>
       </c>
       <c r="K646">
+        <f t="shared" si="9"/>
         <v>2021</v>
       </c>
     </row>
@@ -23376,7 +24017,8 @@
         <v>102</v>
       </c>
       <c r="K647">
-        <v>2021</v>
+        <f t="shared" ref="K647:K710" si="10">K643</f>
+        <v>2022</v>
       </c>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
@@ -23411,7 +24053,8 @@
         <v>102</v>
       </c>
       <c r="K648">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
@@ -23446,7 +24089,8 @@
         <v>102</v>
       </c>
       <c r="K649">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
@@ -23481,6 +24125,7 @@
         <v>102</v>
       </c>
       <c r="K650">
+        <f t="shared" si="10"/>
         <v>2021</v>
       </c>
     </row>
@@ -23516,7 +24161,8 @@
         <v>102</v>
       </c>
       <c r="K651">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
@@ -23551,7 +24197,8 @@
         <v>102</v>
       </c>
       <c r="K652">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
@@ -23586,7 +24233,8 @@
         <v>103</v>
       </c>
       <c r="K653">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
@@ -23621,6 +24269,7 @@
         <v>103</v>
       </c>
       <c r="K654">
+        <f t="shared" si="10"/>
         <v>2021</v>
       </c>
     </row>
@@ -23656,7 +24305,8 @@
         <v>103</v>
       </c>
       <c r="K655">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
@@ -23691,7 +24341,8 @@
         <v>103</v>
       </c>
       <c r="K656">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
@@ -23726,7 +24377,8 @@
         <v>103</v>
       </c>
       <c r="K657">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
@@ -23761,6 +24413,7 @@
         <v>103</v>
       </c>
       <c r="K658">
+        <f t="shared" si="10"/>
         <v>2021</v>
       </c>
     </row>
@@ -23796,7 +24449,8 @@
         <v>103</v>
       </c>
       <c r="K659">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
@@ -23831,7 +24485,8 @@
         <v>103</v>
       </c>
       <c r="K660">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
@@ -23866,7 +24521,8 @@
         <v>103</v>
       </c>
       <c r="K661">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
@@ -23901,6 +24557,7 @@
         <v>103</v>
       </c>
       <c r="K662">
+        <f t="shared" si="10"/>
         <v>2021</v>
       </c>
     </row>
@@ -23936,7 +24593,8 @@
         <v>103</v>
       </c>
       <c r="K663">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
@@ -23971,7 +24629,8 @@
         <v>103</v>
       </c>
       <c r="K664">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
@@ -24006,7 +24665,8 @@
         <v>103</v>
       </c>
       <c r="K665">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
@@ -24041,6 +24701,7 @@
         <v>103</v>
       </c>
       <c r="K666">
+        <f t="shared" si="10"/>
         <v>2021</v>
       </c>
     </row>
@@ -24076,7 +24737,8 @@
         <v>103</v>
       </c>
       <c r="K667">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
@@ -24111,7 +24773,8 @@
         <v>103</v>
       </c>
       <c r="K668">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
@@ -24146,7 +24809,8 @@
         <v>103</v>
       </c>
       <c r="K669">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
@@ -24181,6 +24845,7 @@
         <v>103</v>
       </c>
       <c r="K670">
+        <f t="shared" si="10"/>
         <v>2021</v>
       </c>
     </row>
@@ -24216,7 +24881,8 @@
         <v>103</v>
       </c>
       <c r="K671">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
@@ -24251,7 +24917,8 @@
         <v>103</v>
       </c>
       <c r="K672">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
@@ -24286,7 +24953,8 @@
         <v>103</v>
       </c>
       <c r="K673">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
@@ -24321,6 +24989,7 @@
         <v>103</v>
       </c>
       <c r="K674">
+        <f t="shared" si="10"/>
         <v>2021</v>
       </c>
     </row>
@@ -24356,7 +25025,8 @@
         <v>103</v>
       </c>
       <c r="K675">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
@@ -24391,7 +25061,8 @@
         <v>103</v>
       </c>
       <c r="K676">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
@@ -24426,7 +25097,8 @@
         <v>103</v>
       </c>
       <c r="K677">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
@@ -24461,6 +25133,7 @@
         <v>103</v>
       </c>
       <c r="K678">
+        <f t="shared" si="10"/>
         <v>2021</v>
       </c>
     </row>
@@ -24496,7 +25169,8 @@
         <v>103</v>
       </c>
       <c r="K679">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
@@ -24531,7 +25205,8 @@
         <v>103</v>
       </c>
       <c r="K680">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
@@ -24566,7 +25241,8 @@
         <v>103</v>
       </c>
       <c r="K681">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
@@ -24601,6 +25277,7 @@
         <v>103</v>
       </c>
       <c r="K682">
+        <f t="shared" si="10"/>
         <v>2021</v>
       </c>
     </row>
@@ -24636,7 +25313,8 @@
         <v>103</v>
       </c>
       <c r="K683">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
@@ -24671,7 +25349,8 @@
         <v>103</v>
       </c>
       <c r="K684">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
@@ -24706,7 +25385,8 @@
         <v>103</v>
       </c>
       <c r="K685">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
@@ -24741,6 +25421,7 @@
         <v>103</v>
       </c>
       <c r="K686">
+        <f t="shared" si="10"/>
         <v>2021</v>
       </c>
     </row>
@@ -24776,7 +25457,8 @@
         <v>103</v>
       </c>
       <c r="K687">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
@@ -24811,7 +25493,8 @@
         <v>103</v>
       </c>
       <c r="K688">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
@@ -24846,7 +25529,8 @@
         <v>103</v>
       </c>
       <c r="K689">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
@@ -24881,6 +25565,7 @@
         <v>103</v>
       </c>
       <c r="K690">
+        <f t="shared" si="10"/>
         <v>2021</v>
       </c>
     </row>
@@ -24916,7 +25601,8 @@
         <v>103</v>
       </c>
       <c r="K691">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
@@ -24951,7 +25637,8 @@
         <v>103</v>
       </c>
       <c r="K692">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
@@ -24986,7 +25673,8 @@
         <v>103</v>
       </c>
       <c r="K693">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
@@ -25021,6 +25709,7 @@
         <v>103</v>
       </c>
       <c r="K694">
+        <f t="shared" si="10"/>
         <v>2021</v>
       </c>
     </row>
@@ -25056,7 +25745,8 @@
         <v>103</v>
       </c>
       <c r="K695">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
@@ -25091,7 +25781,8 @@
         <v>103</v>
       </c>
       <c r="K696">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
@@ -25126,7 +25817,8 @@
         <v>103</v>
       </c>
       <c r="K697">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
@@ -25161,6 +25853,7 @@
         <v>103</v>
       </c>
       <c r="K698">
+        <f t="shared" si="10"/>
         <v>2021</v>
       </c>
     </row>
@@ -25196,7 +25889,8 @@
         <v>103</v>
       </c>
       <c r="K699">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
@@ -25231,7 +25925,8 @@
         <v>103</v>
       </c>
       <c r="K700">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
@@ -25266,7 +25961,8 @@
         <v>103</v>
       </c>
       <c r="K701">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
@@ -25301,6 +25997,7 @@
         <v>104</v>
       </c>
       <c r="K702">
+        <f t="shared" si="10"/>
         <v>2021</v>
       </c>
     </row>
@@ -25336,7 +26033,8 @@
         <v>104</v>
       </c>
       <c r="K703">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
@@ -25371,7 +26069,8 @@
         <v>104</v>
       </c>
       <c r="K704">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
@@ -25406,7 +26105,8 @@
         <v>104</v>
       </c>
       <c r="K705">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
@@ -25441,6 +26141,7 @@
         <v>104</v>
       </c>
       <c r="K706">
+        <f t="shared" si="10"/>
         <v>2021</v>
       </c>
     </row>
@@ -25476,7 +26177,8 @@
         <v>104</v>
       </c>
       <c r="K707">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
@@ -25511,7 +26213,8 @@
         <v>104</v>
       </c>
       <c r="K708">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
@@ -25546,7 +26249,8 @@
         <v>104</v>
       </c>
       <c r="K709">
-        <v>2021</v>
+        <f t="shared" si="10"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
@@ -25581,6 +26285,7 @@
         <v>104</v>
       </c>
       <c r="K710">
+        <f t="shared" si="10"/>
         <v>2021</v>
       </c>
     </row>
@@ -25616,7 +26321,8 @@
         <v>104</v>
       </c>
       <c r="K711">
-        <v>2021</v>
+        <f t="shared" ref="K711:K774" si="11">K707</f>
+        <v>2022</v>
       </c>
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
@@ -25651,7 +26357,8 @@
         <v>104</v>
       </c>
       <c r="K712">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
@@ -25686,7 +26393,8 @@
         <v>104</v>
       </c>
       <c r="K713">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
@@ -25721,6 +26429,7 @@
         <v>104</v>
       </c>
       <c r="K714">
+        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
     </row>
@@ -25756,7 +26465,8 @@
         <v>104</v>
       </c>
       <c r="K715">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
@@ -25791,7 +26501,8 @@
         <v>104</v>
       </c>
       <c r="K716">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
@@ -25826,7 +26537,8 @@
         <v>104</v>
       </c>
       <c r="K717">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
@@ -25861,6 +26573,7 @@
         <v>104</v>
       </c>
       <c r="K718">
+        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
     </row>
@@ -25896,7 +26609,8 @@
         <v>104</v>
       </c>
       <c r="K719">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
@@ -25931,7 +26645,8 @@
         <v>104</v>
       </c>
       <c r="K720">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
@@ -25966,7 +26681,8 @@
         <v>104</v>
       </c>
       <c r="K721">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
@@ -26001,6 +26717,7 @@
         <v>104</v>
       </c>
       <c r="K722">
+        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
     </row>
@@ -26036,7 +26753,8 @@
         <v>104</v>
       </c>
       <c r="K723">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
@@ -26071,7 +26789,8 @@
         <v>104</v>
       </c>
       <c r="K724">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
@@ -26106,7 +26825,8 @@
         <v>104</v>
       </c>
       <c r="K725">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
@@ -26141,6 +26861,7 @@
         <v>104</v>
       </c>
       <c r="K726">
+        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
     </row>
@@ -26176,7 +26897,8 @@
         <v>104</v>
       </c>
       <c r="K727">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
@@ -26211,7 +26933,8 @@
         <v>104</v>
       </c>
       <c r="K728">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
@@ -26246,7 +26969,8 @@
         <v>104</v>
       </c>
       <c r="K729">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
@@ -26281,6 +27005,7 @@
         <v>104</v>
       </c>
       <c r="K730">
+        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
     </row>
@@ -26316,7 +27041,8 @@
         <v>104</v>
       </c>
       <c r="K731">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
@@ -26351,7 +27077,8 @@
         <v>104</v>
       </c>
       <c r="K732">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
@@ -26386,7 +27113,8 @@
         <v>104</v>
       </c>
       <c r="K733">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
@@ -26421,6 +27149,7 @@
         <v>104</v>
       </c>
       <c r="K734">
+        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
     </row>
@@ -26456,7 +27185,8 @@
         <v>104</v>
       </c>
       <c r="K735">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
@@ -26491,7 +27221,8 @@
         <v>104</v>
       </c>
       <c r="K736">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
@@ -26526,7 +27257,8 @@
         <v>104</v>
       </c>
       <c r="K737">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
@@ -26561,6 +27293,7 @@
         <v>104</v>
       </c>
       <c r="K738">
+        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
     </row>
@@ -26596,7 +27329,8 @@
         <v>104</v>
       </c>
       <c r="K739">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
@@ -26631,7 +27365,8 @@
         <v>104</v>
       </c>
       <c r="K740">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
@@ -26666,7 +27401,8 @@
         <v>104</v>
       </c>
       <c r="K741">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
@@ -26701,6 +27437,7 @@
         <v>104</v>
       </c>
       <c r="K742">
+        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
     </row>
@@ -26736,7 +27473,8 @@
         <v>104</v>
       </c>
       <c r="K743">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
@@ -26771,7 +27509,8 @@
         <v>104</v>
       </c>
       <c r="K744">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
@@ -26806,7 +27545,8 @@
         <v>104</v>
       </c>
       <c r="K745">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
@@ -26841,6 +27581,7 @@
         <v>104</v>
       </c>
       <c r="K746">
+        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
     </row>
@@ -26876,7 +27617,8 @@
         <v>104</v>
       </c>
       <c r="K747">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
@@ -26911,7 +27653,8 @@
         <v>104</v>
       </c>
       <c r="K748">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
@@ -26946,7 +27689,8 @@
         <v>104</v>
       </c>
       <c r="K749">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
@@ -26981,6 +27725,7 @@
         <v>104</v>
       </c>
       <c r="K750">
+        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
     </row>
@@ -27016,7 +27761,8 @@
         <v>104</v>
       </c>
       <c r="K751">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
@@ -27051,7 +27797,8 @@
         <v>105</v>
       </c>
       <c r="K752">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
@@ -27086,7 +27833,8 @@
         <v>105</v>
       </c>
       <c r="K753">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
@@ -27121,6 +27869,7 @@
         <v>105</v>
       </c>
       <c r="K754">
+        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
     </row>
@@ -27156,7 +27905,8 @@
         <v>105</v>
       </c>
       <c r="K755">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
@@ -27191,7 +27941,8 @@
         <v>105</v>
       </c>
       <c r="K756">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
@@ -27226,7 +27977,8 @@
         <v>105</v>
       </c>
       <c r="K757">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
@@ -27261,6 +28013,7 @@
         <v>105</v>
       </c>
       <c r="K758">
+        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
     </row>
@@ -27296,7 +28049,8 @@
         <v>105</v>
       </c>
       <c r="K759">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
@@ -27331,7 +28085,8 @@
         <v>105</v>
       </c>
       <c r="K760">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
@@ -27366,7 +28121,8 @@
         <v>105</v>
       </c>
       <c r="K761">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
@@ -27401,6 +28157,7 @@
         <v>105</v>
       </c>
       <c r="K762">
+        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
     </row>
@@ -27436,7 +28193,8 @@
         <v>105</v>
       </c>
       <c r="K763">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
@@ -27471,7 +28229,8 @@
         <v>105</v>
       </c>
       <c r="K764">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
@@ -27506,7 +28265,8 @@
         <v>105</v>
       </c>
       <c r="K765">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
@@ -27541,6 +28301,7 @@
         <v>105</v>
       </c>
       <c r="K766">
+        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
     </row>
@@ -27576,7 +28337,8 @@
         <v>105</v>
       </c>
       <c r="K767">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
@@ -27611,7 +28373,8 @@
         <v>105</v>
       </c>
       <c r="K768">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
@@ -27646,7 +28409,8 @@
         <v>105</v>
       </c>
       <c r="K769">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
@@ -27681,6 +28445,7 @@
         <v>105</v>
       </c>
       <c r="K770">
+        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
     </row>
@@ -27716,7 +28481,8 @@
         <v>105</v>
       </c>
       <c r="K771">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
@@ -27751,7 +28517,8 @@
         <v>105</v>
       </c>
       <c r="K772">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
@@ -27786,7 +28553,8 @@
         <v>105</v>
       </c>
       <c r="K773">
-        <v>2021</v>
+        <f t="shared" si="11"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
@@ -27821,6 +28589,7 @@
         <v>105</v>
       </c>
       <c r="K774">
+        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
     </row>
@@ -27856,7 +28625,8 @@
         <v>105</v>
       </c>
       <c r="K775">
-        <v>2021</v>
+        <f t="shared" ref="K775:K801" si="12">K771</f>
+        <v>2022</v>
       </c>
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
@@ -27891,7 +28661,8 @@
         <v>105</v>
       </c>
       <c r="K776">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
@@ -27926,7 +28697,8 @@
         <v>105</v>
       </c>
       <c r="K777">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
@@ -27961,6 +28733,7 @@
         <v>105</v>
       </c>
       <c r="K778">
+        <f t="shared" si="12"/>
         <v>2021</v>
       </c>
     </row>
@@ -27996,7 +28769,8 @@
         <v>105</v>
       </c>
       <c r="K779">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
@@ -28031,7 +28805,8 @@
         <v>105</v>
       </c>
       <c r="K780">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
@@ -28066,7 +28841,8 @@
         <v>105</v>
       </c>
       <c r="K781">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
@@ -28101,6 +28877,7 @@
         <v>105</v>
       </c>
       <c r="K782">
+        <f t="shared" si="12"/>
         <v>2021</v>
       </c>
     </row>
@@ -28136,7 +28913,8 @@
         <v>105</v>
       </c>
       <c r="K783">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
@@ -28171,7 +28949,8 @@
         <v>105</v>
       </c>
       <c r="K784">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
@@ -28206,7 +28985,8 @@
         <v>105</v>
       </c>
       <c r="K785">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
@@ -28241,6 +29021,7 @@
         <v>105</v>
       </c>
       <c r="K786">
+        <f t="shared" si="12"/>
         <v>2021</v>
       </c>
     </row>
@@ -28276,7 +29057,8 @@
         <v>105</v>
       </c>
       <c r="K787">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
@@ -28311,7 +29093,8 @@
         <v>105</v>
       </c>
       <c r="K788">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
@@ -28346,7 +29129,8 @@
         <v>105</v>
       </c>
       <c r="K789">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
@@ -28381,6 +29165,7 @@
         <v>105</v>
       </c>
       <c r="K790">
+        <f t="shared" si="12"/>
         <v>2021</v>
       </c>
     </row>
@@ -28416,7 +29201,8 @@
         <v>105</v>
       </c>
       <c r="K791">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
@@ -28451,7 +29237,8 @@
         <v>105</v>
       </c>
       <c r="K792">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
@@ -28486,7 +29273,8 @@
         <v>105</v>
       </c>
       <c r="K793">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
@@ -28521,6 +29309,7 @@
         <v>105</v>
       </c>
       <c r="K794">
+        <f t="shared" si="12"/>
         <v>2021</v>
       </c>
     </row>
@@ -28556,7 +29345,8 @@
         <v>105</v>
       </c>
       <c r="K795">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
@@ -28591,7 +29381,8 @@
         <v>105</v>
       </c>
       <c r="K796">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
@@ -28626,7 +29417,8 @@
         <v>105</v>
       </c>
       <c r="K797">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.25">
@@ -28661,6 +29453,7 @@
         <v>105</v>
       </c>
       <c r="K798">
+        <f t="shared" si="12"/>
         <v>2021</v>
       </c>
     </row>
@@ -28696,7 +29489,8 @@
         <v>105</v>
       </c>
       <c r="K799">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.25">
@@ -28731,7 +29525,8 @@
         <v>105</v>
       </c>
       <c r="K800">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.25">
@@ -28766,7 +29561,8 @@
         <v>105</v>
       </c>
       <c r="K801">
-        <v>2021</v>
+        <f t="shared" si="12"/>
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
@@ -28778,7 +29574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41A98CA-E9B5-41DB-A067-91CBFF42DDAF}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A16"/>
     </sheetView>
   </sheetViews>
